--- a/biology/Médecine/Naltrexone/Naltrexone.xlsx
+++ b/biology/Médecine/Naltrexone/Naltrexone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La naltrexone est un inhibiteur des opiacés (endogènes et exogènes) utilisé à l'origine dans le traitement des toxicomanies aux opiacés puis dans celui de l'alcoolisme chronique.
@@ -519,21 +531,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avec autorisation de mise sur le marché
-Dépendance à l'alcool
-Elle diminue la fréquence et la sévérité des rechutes dans la consommation abusive d'alcool[2]. L'étude multicentrique COMBINE a montré l'efficacité de la naltrexone comme traitement en médecine ambulatoire, sans association de psychothérapie[3]. Les mécanismes d'actions pourraient être un effet antagoniste aux opioïdes endogènes comme la tétrahydropapavéroline, dont la production est augmentée lors de la consommation d'alcool[4].
-La dose initiale est de 50 mg par jour. Des nausées assez fréquentes[5] disparaissent au bout de quelques jours. Les autres effets indésirables sont rares à ces doses-là (cytolyse hépatique)[5]. Les interactions médicamenteuses sont peu significatives. La naltrexone a deux effets[6]. Elle diminue le besoin compulsif (craving) de boire et elle diminue les effets renforçants positifs (effets plaisants) lié à une prise d'alcool.
-Dépendance aux opioïdes
-La naltrexone aide les patients à se sevrer des opioïdes en bloquant les effets euphoriques des drogues. Elle a peu d'effet sur le besoin compulsif contrairement à l'alcool[7]. Elle a été mieux étudiée dans l'alcoolodépendance que dans la dépendance aux opioïdes.
-Hors autorisation de mise sur le marché
-À côté de cet usage de la molécule, existe un autre usage dit « LDN » pour Low Dose Naltrexone = « faibles doses de naltrexone », qui a été promu par le Dr Bihari dans les années 1980[8]. Les doses de naltrexone prescrites sont alors de l'ordre de 1,5 mg/j à 4,5 mg/j (contre 50 mg/j dans l'usage princeps). Selon lui, le produit doit être pris (per os) au coucher. Les indications thérapeutiques seraient nombreuses :
-SIDA[réf. nécessaire] ;
-sclérose en plaques (SEP)[9],[10] ;
-maladie de Crohn[11] ;
-fibromyalgie[12],[13],[14] ;
-maladie de Lyme[15] ;
-et d'autres maladies[16],[17],[18].
-Malgré l'absence totale d'essai de taille suffisante et méthodologiquement fiable et de recommandations de sociétés savantes ou d'autorité de santé, certains spécialistes des endorphines cautionnent l'efficacité des LDN dans la SEP, la fibromyalgie et la maladie de Crohn[19]. Cet usage se répand aujourd'hui aux Etats-Unis pour l'ensemble des maladies à caractère inflammatoire et auto-immunes. [4]
+          <t>Avec autorisation de mise sur le marché</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Dépendance à l'alcool</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle diminue la fréquence et la sévérité des rechutes dans la consommation abusive d'alcool. L'étude multicentrique COMBINE a montré l'efficacité de la naltrexone comme traitement en médecine ambulatoire, sans association de psychothérapie. Les mécanismes d'actions pourraient être un effet antagoniste aux opioïdes endogènes comme la tétrahydropapavéroline, dont la production est augmentée lors de la consommation d'alcool.
+La dose initiale est de 50 mg par jour. Des nausées assez fréquentes disparaissent au bout de quelques jours. Les autres effets indésirables sont rares à ces doses-là (cytolyse hépatique). Les interactions médicamenteuses sont peu significatives. La naltrexone a deux effets. Elle diminue le besoin compulsif (craving) de boire et elle diminue les effets renforçants positifs (effets plaisants) lié à une prise d'alcool.
 </t>
         </is>
       </c>
@@ -559,13 +568,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Contre-indications thérapeutiques</t>
+          <t>Indications thérapeutiques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les opioïdes endogènes (produits par l’organisme) peuvent jouer un rôle important dans certaines circonstances en permettant une hypoalgésie, c'est-à-dire en élevant le seuil de la douleur (nociception, notamment dans une partie des cas d'effets placébo face à la douleur chronique).
-La naltrexone peut annuler cet effet[20].
+          <t>Avec autorisation de mise sur le marché</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Dépendance aux opioïdes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La naltrexone aide les patients à se sevrer des opioïdes en bloquant les effets euphoriques des drogues. Elle a peu d'effet sur le besoin compulsif contrairement à l'alcool. Elle a été mieux étudiée dans l'alcoolodépendance que dans la dépendance aux opioïdes.
 </t>
         </is>
       </c>
@@ -591,10 +609,90 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Indications thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hors autorisation de mise sur le marché</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À côté de cet usage de la molécule, existe un autre usage dit « LDN » pour Low Dose Naltrexone = « faibles doses de naltrexone », qui a été promu par le Dr Bihari dans les années 1980. Les doses de naltrexone prescrites sont alors de l'ordre de 1,5 mg/j à 4,5 mg/j (contre 50 mg/j dans l'usage princeps). Selon lui, le produit doit être pris (per os) au coucher. Les indications thérapeutiques seraient nombreuses :
+SIDA[réf. nécessaire] ;
+sclérose en plaques (SEP), ;
+maladie de Crohn ;
+fibromyalgie ;
+maladie de Lyme ;
+et d'autres maladies.
+Malgré l'absence totale d'essai de taille suffisante et méthodologiquement fiable et de recommandations de sociétés savantes ou d'autorité de santé, certains spécialistes des endorphines cautionnent l'efficacité des LDN dans la SEP, la fibromyalgie et la maladie de Crohn. Cet usage se répand aujourd'hui aux Etats-Unis pour l'ensemble des maladies à caractère inflammatoire et auto-immunes. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Naltrexone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naltrexone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Contre-indications thérapeutiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les opioïdes endogènes (produits par l’organisme) peuvent jouer un rôle important dans certaines circonstances en permettant une hypoalgésie, c'est-à-dire en élevant le seuil de la douleur (nociception, notamment dans une partie des cas d'effets placébo face à la douleur chronique).
+La naltrexone peut annuler cet effet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Naltrexone</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naltrexone</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Noms commerciaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La naltrexone est vendue sous différents noms :
 Celupan
@@ -611,33 +709,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Naltrexone</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Naltrexone</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Association bupropion/naltrexone</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 10 septembre 2014, la Food and Drug Administration (FDA) a donné son feu vert à la commercialisation de l'association bupropion/naltrexone (nom commercial : Contrave de l'entreprise pharmaceutique japonaise Takeda Pharmaceutical) dans le traitement de l’obésité[21].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 10 septembre 2014, la Food and Drug Administration (FDA) a donné son feu vert à la commercialisation de l'association bupropion/naltrexone (nom commercial : Contrave de l'entreprise pharmaceutique japonaise Takeda Pharmaceutical) dans le traitement de l’obésité.
 </t>
         </is>
       </c>
